--- a/results/manual_fid_is_results.xlsx
+++ b/results/manual_fid_is_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\msc\2. semester\diffusion-model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602718C-720E-4600-A093-2BF8F6F16EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E1DE1B-0AE7-4F3F-9C8B-A67743BFF008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10080" yWindow="780" windowWidth="12876" windowHeight="8880" xr2:uid="{9016942F-EDCA-4CB1-B3E2-EC46A3B71637}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>batch_size</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>diffusion-model_v24</t>
+  </si>
+  <si>
+    <t>diffusion-model_v25</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D709A38-A1BE-48B2-8ECE-5CA1B06C54A5}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,13 +1112,16 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D14" s="1">
         <v>1E-3</v>
       </c>
       <c r="E14" s="1">
         <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -1125,6 +1131,21 @@
       </c>
       <c r="I14">
         <v>500</v>
+      </c>
+      <c r="J14">
+        <v>16.606000000000002</v>
+      </c>
+      <c r="K14">
+        <v>1.349</v>
+      </c>
+      <c r="L14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
